--- a/Waho/wwwroot/ReturnOrderDetail.xlsx
+++ b/Waho/wwwroot/ReturnOrderDetail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Mã hoàn đơn :</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>1/1/2001 12:00:00 AM</t>
+    <t>12/3/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Số tiền cần trả khách</t>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Số tiền đã trả khách</t>
-  </si>
-  <si>
-    <t>9000000 đồng</t>
   </si>
   <si>
     <t>Tên sản phẩm</t>
@@ -161,29 +158,29 @@
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0">
         <v>200000</v>
@@ -194,10 +191,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0">
         <v>300000</v>
@@ -208,10 +205,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0">
         <v>600000</v>
@@ -222,10 +219,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0">
         <v>600000</v>
@@ -236,10 +233,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0">
         <v>600000</v>
@@ -250,10 +247,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0">
         <v>300000</v>
@@ -264,10 +261,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0">
         <v>600000</v>
@@ -278,10 +275,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0">
         <v>600000</v>
@@ -292,10 +289,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0">
         <v>600000</v>
@@ -306,10 +303,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0">
         <v>600000</v>

--- a/Waho/wwwroot/ReturnOrderDetail.xlsx
+++ b/Waho/wwwroot/ReturnOrderDetail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mã hoàn đơn :</t>
   </si>
@@ -26,19 +26,19 @@
     <t>Người tạo đơn</t>
   </si>
   <si>
-    <t>Trương Thu</t>
+    <t>Trần Đức 123</t>
   </si>
   <si>
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>12/3/2023 12:00:00 AM</t>
+    <t>27/3/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Số tiền cần trả khách</t>
   </si>
   <si>
-    <t>10000000 đồng</t>
+    <t>100000.00 đồng</t>
   </si>
   <si>
     <t>Số tiền đã trả khách</t>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Local Brand</t>
-  </si>
-  <si>
-    <t>Áo Phông in tất cả LOGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Áo Khoác hồng </t>
   </si>
 </sst>
 </file>
@@ -111,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -122,7 +116,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
@@ -186,133 +180,7 @@
         <v>200000</v>
       </c>
       <c r="D6" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D7" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D8" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D9" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D10" s="0">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D11" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D12" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D14" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="0">
-        <v>600000</v>
-      </c>
-      <c r="D15" s="0">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
